--- a/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-3.353711435479186</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.070886124317749</v>
+        <v>-2.070886124317746</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.033591839189627</v>
+        <v>-3.916355299949052</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.619033086954231</v>
+        <v>-5.103326872406613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.564766340780621</v>
+        <v>-7.699288268600882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.57192862956704</v>
+        <v>-9.333588100285283</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.983454005705527</v>
+        <v>-9.921078474676049</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.33830945974482</v>
+        <v>-5.185102337860102</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.171534352374618</v>
+        <v>-5.671966765954187</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.868486888936332</v>
+        <v>-6.039782173103943</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.681009158600569</v>
+        <v>-5.539969630526753</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.036023776513496</v>
+        <v>2.93751585562131</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.767298818989846</v>
+        <v>1.929862485586395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4149039603387381</v>
+        <v>0.7271616812284356</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.388903866069553</v>
+        <v>-0.7755675811862339</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.7452183129555948</v>
+        <v>-0.9399221415623034</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.43425828710821</v>
+        <v>6.98985624853877</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1719516535236778</v>
+        <v>0.0800544781651331</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.4291778446161474</v>
+        <v>-0.4481769069586276</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.023750842903935</v>
+        <v>2.141096038276373</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2831442474123435</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1748389819539836</v>
+        <v>-0.1748389819539833</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3987119553522847</v>
+        <v>-0.3954181168843078</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5391904349617861</v>
+        <v>-0.5109691608111832</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.786881718771447</v>
+        <v>-0.7895647279825994</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5350026678562839</v>
+        <v>-0.536089481722455</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5476624306180113</v>
+        <v>-0.5509512697122531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3147818310237285</v>
+        <v>-0.3288376554263738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.392972450410205</v>
+        <v>-0.4103860349205324</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4537487482702184</v>
+        <v>-0.462453068951201</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.431549421014569</v>
+        <v>-0.4339584009017664</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4375185563449523</v>
+        <v>0.4673903252094253</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2598361389329378</v>
+        <v>0.2992798256954795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1110986501398576</v>
+        <v>0.1116748998396729</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.02532534405598075</v>
+        <v>-0.05360242420539077</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05229043493394586</v>
+        <v>-0.06674430330787867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5182053052437928</v>
+        <v>0.5225731977381695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03462231554862104</v>
+        <v>0.01194783732493277</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.03970673662729163</v>
+        <v>-0.03936676864261474</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2028887440524851</v>
+        <v>0.2014533166470451</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.324794378618612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.322420725834175</v>
+        <v>-1.322420725834178</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.58874487734723</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.984845370624975</v>
+        <v>-6.378642773611372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.696122086262311</v>
+        <v>-6.806257598692094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.648108031849363</v>
+        <v>-5.41320863456623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.636839926711674</v>
+        <v>-8.158346307293153</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.09245020544766</v>
+        <v>-12.04365428460674</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.649019008280344</v>
+        <v>-9.701603284857859</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.788542227239988</v>
+        <v>-5.653184493363217</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.915205854667838</v>
+        <v>-7.913246311339465</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.061840482842961</v>
+        <v>-5.915174283944605</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8327463771223979</v>
+        <v>0.4600976565179961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1121489448863264</v>
+        <v>-0.1880000198948749</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.24598786840348</v>
+        <v>3.505576054528927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6990462250935592</v>
+        <v>0.5148148330698926</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.707329722372701</v>
+        <v>-3.981544161456784</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.563397919356951</v>
+        <v>-0.8624686620745723</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.2466053054195727</v>
+        <v>-0.1884867068352092</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.524552541836497</v>
+        <v>-2.304040661955727</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3142582918925113</v>
+        <v>0.2160651830670425</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2756935191067172</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1096557507403992</v>
+        <v>-0.1096557507403994</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1948207561879142</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4327117749944204</v>
+        <v>-0.4345863963270897</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5011544515722092</v>
+        <v>-0.4944456527757204</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4244353880247437</v>
+        <v>-0.4143760644458378</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3769517861182375</v>
+        <v>-0.3928345935510308</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.576389213575377</v>
+        <v>-0.5653309762879697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.459021598739981</v>
+        <v>-0.4750292626140149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3529662386138588</v>
+        <v>-0.3430811313006941</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4791937132540108</v>
+        <v>-0.4789075275594126</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3797222690156616</v>
+        <v>-0.364921566996307</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09141339845289995</v>
+        <v>0.05370954179797558</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01714916359175293</v>
+        <v>-0.01670826578341206</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3087430933654778</v>
+        <v>0.3353911935814426</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.04547760606659406</v>
+        <v>0.03313261203393184</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2211283805671319</v>
+        <v>-0.230251884114895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02966042213183509</v>
+        <v>-0.05046514435597488</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.016695045484728</v>
+        <v>-0.01465581595916087</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1814340331963936</v>
+        <v>-0.1723296044547369</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01941812195718972</v>
+        <v>0.02125953923917286</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.897973761803444</v>
+        <v>-6.578895575952896</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.52615719272822</v>
+        <v>-11.2135859044351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.095643727944264</v>
+        <v>-8.20329015413774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.810096594815223</v>
+        <v>-6.509409644224093</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.79314464225029</v>
+        <v>-11.70271379307381</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.11730133792068</v>
+        <v>-10.66684433172838</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.293206550008411</v>
+        <v>-5.467755991586523</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.48946026501209</v>
+        <v>-10.50470958356213</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.157650720404664</v>
+        <v>-8.183759947971257</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.491894814745269</v>
+        <v>1.642929708481071</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.971846368657209</v>
+        <v>-3.392986611305827</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2498687268641936</v>
+        <v>0.2122097368137248</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.071357143299793</v>
+        <v>2.381500364442839</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.747243755814896</v>
+        <v>-3.140866010038617</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.439287750704073</v>
+        <v>-2.498269932349012</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6845306874336933</v>
+        <v>0.5784665838961208</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.889457477192689</v>
+        <v>-4.900393592058834</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.106231185477033</v>
+        <v>-2.269049103537892</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3562927501184979</v>
+        <v>-0.3470996366024672</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5976623838191567</v>
+        <v>-0.5839531300926941</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.426792787649503</v>
+        <v>-0.4276163728616609</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2797326269586986</v>
+        <v>-0.2690187153849493</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4817879130845893</v>
+        <v>-0.4828234646823392</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4209994053214522</v>
+        <v>-0.4352669126829451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2577817859035998</v>
+        <v>-0.2566124860766079</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4987088681655906</v>
+        <v>-0.4922853720591379</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3799348420333132</v>
+        <v>-0.3861818833939314</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1002088233883167</v>
+        <v>0.1057971221879449</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2535626755487277</v>
+        <v>-0.2241500161518613</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01931941576728781</v>
+        <v>0.0228345042681366</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1052538814130141</v>
+        <v>0.1212176607057377</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1848915441818756</v>
+        <v>-0.1550236540669158</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1223714024340506</v>
+        <v>-0.1275371336860875</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03556832008700349</v>
+        <v>0.03709404787258637</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2710311495520167</v>
+        <v>-0.2657017486331282</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1229102576968026</v>
+        <v>-0.1201448952654357</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.105897472981513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.059203827804569</v>
+        <v>-1.059203827804572</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.576919383457959</v>
@@ -1306,7 +1306,7 @@
         <v>-5.333835225771019</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.1784224809709</v>
+        <v>-4.178422480970897</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.980736436195266</v>
+        <v>-6.146734729928705</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.724098859823262</v>
+        <v>-6.78659428640624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.533840096208671</v>
+        <v>-5.89440573921144</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.232276481091425</v>
+        <v>-7.078737945705048</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.6893145502458</v>
+        <v>-13.97591089658801</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.10160838119563</v>
+        <v>-12.4009673163694</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.484340037715091</v>
+        <v>-4.831315268587177</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.817812534191669</v>
+        <v>-8.679569313193145</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-7.525480396838353</v>
+        <v>-7.454843167280941</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.078755371477621</v>
+        <v>3.10271172419535</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.256423956431937</v>
+        <v>2.542999452023297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.185244361379614</v>
+        <v>3.293282197907982</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.583414117086968</v>
+        <v>3.755413244910719</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.807157757123233</v>
+        <v>-3.754651654739259</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-2.591332370415102</v>
+        <v>-2.730309513432929</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.944283977551636</v>
+        <v>2.380244765012228</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.001161917808854</v>
+        <v>-1.553658008207372</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.9802799015766015</v>
+        <v>-1.209811260387627</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1196541878505612</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.06018249958044089</v>
+        <v>-0.06018249958044105</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05577479218457113</v>
@@ -1411,7 +1411,7 @@
         <v>-0.23273213606884</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1823178160239941</v>
+        <v>-0.1823178160239939</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2889922727288968</v>
+        <v>-0.3034860123308218</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3300775423200453</v>
+        <v>-0.3421465716196057</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2745541016348536</v>
+        <v>-0.2827927322713001</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2329695888408185</v>
+        <v>-0.230330583095155</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4330847049608655</v>
+        <v>-0.4340663321025536</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3822536070079259</v>
+        <v>-0.3924301942658868</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2144281094673263</v>
+        <v>-0.1967511764220674</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3534975061813953</v>
+        <v>-0.35180867987918</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3004290698098582</v>
+        <v>-0.2987557880813585</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2115597988232252</v>
+        <v>0.2162893736222151</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1606787938497195</v>
+        <v>0.1737697429305686</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2159822027184492</v>
+        <v>0.2159047826404619</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1424156533691895</v>
+        <v>0.1524822869510223</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1407531463079869</v>
+        <v>-0.1394517414649872</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1111198687878079</v>
+        <v>-0.1158320770133356</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0979316221558492</v>
+        <v>0.1143792914299961</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09455396437306557</v>
+        <v>-0.07274096717519576</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.04808518410093534</v>
+        <v>-0.0603382972074963</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-7.645282700232903</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-8.097038806851685</v>
+        <v>-8.09703880685168</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.291114134772917</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.15672415974133</v>
+        <v>-11.33200189251501</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.29665571354613</v>
+        <v>-15.91169833783258</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.47714124429524</v>
+        <v>-13.39296227211065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.01065985969244</v>
+        <v>-10.19885695678165</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-14.43927671185014</v>
+        <v>-14.30001842714154</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.21772226163095</v>
+        <v>-13.52752815974645</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-9.027113777590307</v>
+        <v>-8.584531845985726</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-13.03975107511062</v>
+        <v>-12.6114530891296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.71525111407998</v>
+        <v>-12.38654991903304</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.166365437367557</v>
+        <v>1.176603005613611</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.226711101917659</v>
+        <v>-3.707030167226702</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.41398881019903</v>
+        <v>-2.293775512450561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.567059251054399</v>
+        <v>2.996040354705871</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.90485964276216</v>
+        <v>-1.36861666730771</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.245678530883515</v>
+        <v>-2.558751982770068</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3030742227343178</v>
+        <v>0.7107273829789106</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.179238873646703</v>
+        <v>-4.369686480204856</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.040983156424822</v>
+        <v>-4.530876964662988</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2118302626847702</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.224347211826702</v>
+        <v>-0.2243472118267018</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1314362587865189</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3503873045555479</v>
+        <v>-0.3570487766305591</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4989720842431851</v>
+        <v>-0.490119774374306</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.419566921879898</v>
+        <v>-0.4133891657670465</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2507885541663755</v>
+        <v>-0.2636492618747699</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3641618117257843</v>
+        <v>-0.3590004195860087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.331990895295282</v>
+        <v>-0.3350016524336374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2523515970096376</v>
+        <v>-0.2479696395914423</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3754305942253304</v>
+        <v>-0.363404407891274</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3364324853009932</v>
+        <v>-0.3444760623575389</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05191459688071236</v>
+        <v>0.04011214350051131</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1564357894709861</v>
+        <v>-0.1447935910384378</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1014882009374209</v>
+        <v>-0.08645287389493776</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1048165043767734</v>
+        <v>0.08788174951015579</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05220701653760107</v>
+        <v>-0.04079450210785987</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06539329771772388</v>
+        <v>-0.0779287114607396</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01238766208775881</v>
+        <v>0.0200071751925624</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1376773695991828</v>
+        <v>-0.1432753147727072</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1383621219259229</v>
+        <v>-0.1491805601655984</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.37952882458737</v>
+        <v>-12.06645201657797</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-13.75435295951591</v>
+        <v>-13.25931884454355</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-17.31700520821544</v>
+        <v>-17.02590206107</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-23.47353674005992</v>
+        <v>-23.46695008101291</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-24.5229675627988</v>
+        <v>-25.1633170660258</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-28.25182600844413</v>
+        <v>-27.42575429939582</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-16.39492555377447</v>
+        <v>-17.06029385584734</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-17.42271899780238</v>
+        <v>-16.95316440095884</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-20.78369485751729</v>
+        <v>-21.45352448475528</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.027784869850482</v>
+        <v>2.766784515935965</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.5229599623100876</v>
+        <v>1.018653632342937</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.988382527233145</v>
+        <v>-4.701382689670401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-9.553227229920482</v>
+        <v>-9.761765548545922</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-10.20328232960713</v>
+        <v>-10.60423894068972</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-14.85250696154669</v>
+        <v>-14.90328200448351</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-5.602442931745598</v>
+        <v>-6.173478799318762</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-7.660755474280996</v>
+        <v>-7.000741240776283</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-12.13309101095113</v>
+        <v>-12.3538158713571</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.3269688492059927</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4051974301807654</v>
+        <v>-0.4051974301807655</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2536017583148758</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3507029410843294</v>
+        <v>-0.3271715196947227</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3652580490809857</v>
+        <v>-0.3658425266795386</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4677903840727985</v>
+        <v>-0.4560930851092236</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4165282980529949</v>
+        <v>-0.41328439504413</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4338052631222361</v>
+        <v>-0.4358920807739639</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.490556602733026</v>
+        <v>-0.4795010978644673</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3537571549527623</v>
+        <v>-0.3659323653809769</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3750552556635902</v>
+        <v>-0.3689789656540133</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4478803228117075</v>
+        <v>-0.4555574695053001</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.06776150783727213</v>
+        <v>0.1175021832766171</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.01987595025497414</v>
+        <v>0.03169065553520198</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1620761836929473</v>
+        <v>-0.1613773071994868</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.1867973510344318</v>
+        <v>-0.1891792946770447</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.2061022094510518</v>
+        <v>-0.206351155864025</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.31089623922423</v>
+        <v>-0.3062779442268956</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.137214585705838</v>
+        <v>-0.1474804765732239</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1839651869109452</v>
+        <v>-0.1738989037791146</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2978385278890212</v>
+        <v>-0.2962730091097411</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-14.78165924913492</v>
+        <v>-15.90652395654902</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-14.40097622404622</v>
+        <v>-14.42422153055728</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-19.86400624620006</v>
+        <v>-18.74952835465781</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-16.2185985900934</v>
+        <v>-16.49855719569606</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-18.35363566483208</v>
+        <v>-17.36560304948806</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-21.61887836690406</v>
+        <v>-22.06160759895836</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-12.96411778130787</v>
+        <v>-13.2129810283635</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-14.49286851240492</v>
+        <v>-14.11686588445078</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-19.15519148141402</v>
+        <v>-18.45122113609502</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.596378464259685</v>
+        <v>3.568300892378384</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.608160382090936</v>
+        <v>3.527815689731421</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.008781438471908</v>
+        <v>-3.281240199916541</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.7314211714862894</v>
+        <v>-0.4026795677331274</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.341231063088039</v>
+        <v>-1.699239418722524</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-8.587727239541145</v>
+        <v>-8.091745905184029</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.7098700435242881</v>
+        <v>-1.061351954626927</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.984462272287141</v>
+        <v>-2.067237848303374</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-9.271713607122486</v>
+        <v>-8.350229509395509</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.1777167230756444</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.2674581868349225</v>
+        <v>-0.2674581868349226</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1372906209033306</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2831215427734739</v>
+        <v>-0.2988276235932851</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2773791534688481</v>
+        <v>-0.2733756002849385</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3703993940715683</v>
+        <v>-0.3639357941115058</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2662756836557828</v>
+        <v>-0.2708700410143446</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3035608039607838</v>
+        <v>-0.2878156132430293</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3520277541364655</v>
+        <v>-0.3560299740220995</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2330798097646099</v>
+        <v>-0.232715970471237</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2578992263044632</v>
+        <v>-0.2502276357605976</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.332200700728645</v>
+        <v>-0.3252232143031467</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08451268962660495</v>
+        <v>0.0841855255741947</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.05801948770094346</v>
+        <v>0.08705489160110973</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.09558915373267148</v>
+        <v>-0.0748183071267198</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.01330638671969407</v>
+        <v>-0.009195265350795069</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.04245409929969689</v>
+        <v>-0.03485731258571353</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1608081044795435</v>
+        <v>-0.1565600141744448</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.01359633743692916</v>
+        <v>-0.02028489264398381</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.03839493508910938</v>
+        <v>-0.04399079205760884</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1827179493342412</v>
+        <v>-0.168985169310618</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-7.43179882131775</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-6.169714181739355</v>
+        <v>-6.169714181739364</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-3.204114752238105</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.245850153240069</v>
+        <v>-4.1451682321309</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.660263971219409</v>
+        <v>-5.778020180455004</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.39657827185027</v>
+        <v>-4.703181080477516</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.219530382279345</v>
+        <v>-6.549892128715544</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-9.627014033753465</v>
+        <v>-9.489244296926989</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-8.07712863320047</v>
+        <v>-8.177808827614097</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.82549999158157</v>
+        <v>-4.730184069320733</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.090416176613269</v>
+        <v>-6.918047311080556</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.892048222008282</v>
+        <v>-5.788024522102242</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.1306160497953325</v>
+        <v>-0.1571960518491973</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.00578996647317</v>
+        <v>-2.055720687771499</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.7199247148560253</v>
+        <v>-0.8233288217408001</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.039953796351417</v>
+        <v>-2.072836416684467</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-5.315740196653342</v>
+        <v>-5.335027092473765</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-4.087838965939753</v>
+        <v>-4.282389079380295</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.905817832877097</v>
+        <v>-1.829477210682623</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-4.153434130987771</v>
+        <v>-4.125923679046019</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-3.006135580933006</v>
+        <v>-3.109492846190349</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.2504923108302085</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2079531483162201</v>
+        <v>-0.2079531483162203</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1298937554743385</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.207690015286543</v>
+        <v>-0.2017074099651008</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2789421860914674</v>
+        <v>-0.2805273752997271</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2165272561555525</v>
+        <v>-0.2277554550170419</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2036065711573324</v>
+        <v>-0.2088006806579757</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3130022858626235</v>
+        <v>-0.3090821524522118</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.260972956494116</v>
+        <v>-0.2667816306800885</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1892803914353171</v>
+        <v>-0.1860477164159776</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2776465041714836</v>
+        <v>-0.2735770916604602</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2296572412667021</v>
+        <v>-0.2270534678755101</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.01179503458763144</v>
+        <v>-0.007123319005864933</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1075381950318701</v>
+        <v>-0.1086960646977779</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.03896298114376614</v>
+        <v>-0.04315302241785312</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.07054597410310189</v>
+        <v>-0.07135969910867833</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1860564920047329</v>
+        <v>-0.1872554070666507</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1447868354189377</v>
+        <v>-0.1503830845189605</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.07998296700862406</v>
+        <v>-0.07772588096603666</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1741427762017724</v>
+        <v>-0.1739885553342042</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.1258663496283985</v>
+        <v>-0.1289144992340815</v>
       </c>
     </row>
     <row r="52">
